--- a/myapp/Data Excel.xlsx
+++ b/myapp/Data Excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEBSITE\PRANAUGI.COM\PENELUSURAN LITERATUR\Aplikasi PLS SEM pada Data Kinerja Keuangan pada Perusahaan yang Terdaftar di BEI\aplikasi shiny\myapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEBSITE\PRANAUGI.COM\PENELUSURAN LITERATUR\Aplikasi PLS SEM pada Data Kinerja Keuangan pada Perusahaan yang Terdaftar di BEI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F2EAEB-4E58-4A42-8255-2CE01AB23651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332878D6-229E-47B2-B170-C75C7F9FD0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="122">
   <si>
     <t>Judul</t>
   </si>
@@ -269,6 +269,131 @@
   </si>
   <si>
     <t>The population of this research comprised mining companies listed on the Indonesia stock exchange in 2015-2019. The total samples obtained were 80 companies for five years. All data related to the research variables were processed using the structural equation modelling (SEM-WarpPLS) method.</t>
+  </si>
+  <si>
+    <t>Manajemen Laba Dan Kecurangan Laporan Keuangan: Industri Pariwisata Dan Rekreasi Di Indonesia</t>
+  </si>
+  <si>
+    <t>Jurnal Reviu Akuntansi dan Keuangan</t>
+  </si>
+  <si>
+    <t>2088-0685</t>
+  </si>
+  <si>
+    <t>2615-2223</t>
+  </si>
+  <si>
+    <t>Mimelientesa Irman, Silfi Putri Anjani, Yenny Wati</t>
+  </si>
+  <si>
+    <t>https://ejournal.umm.ac.id/index.php/jrak/article/view/26500</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.22219/jrak.v13i2.26500</t>
+  </si>
+  <si>
+    <t>Finansial Target (ROA), Finansial Leverage (LEV), Finansial Stabilitas (ACHANGE) (DAR), Ukuran Perusahaan, Manajemen Laba, Kecurangan Laporan Keuangan</t>
+  </si>
+  <si>
+    <t>The objective of this study was to determine the impact of financial target, financial leverage, financial stability, and company size on earnings management and their effect on financial reporting fraud in tourism and recreation industry companies traded on the Indonesia Stock Exchange for the 2017-2021 period.
+This study uses secondary data, namely data obtained indirectly. The sampling technique in this study used a purposive sampling technique. There were 90 observation samples of data obtained. The analytical method of this research uses descriptive analysis and several types of evaluation using SmartPLS software.</t>
+  </si>
+  <si>
+    <t>0.057 atau 5.7% dan 0.056 atau 5.6%</t>
+  </si>
+  <si>
+    <t>R-Square, Pengujian Hipotesis, VIF</t>
+  </si>
+  <si>
+    <t>How Audit Committee Address The Effects Of Political Connections And Government Ownership In Banking Sector</t>
+  </si>
+  <si>
+    <t>Rini Dwiyuna Ningsih, Indayani Indayani, Fifi Yusmita</t>
+  </si>
+  <si>
+    <t>https://ejournal.umm.ac.id/index.php/jrak/article/view/28700</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.22219/jrak.v14i1.28700</t>
+  </si>
+  <si>
+    <t>Political Connection, Government Ownership, Change in Loans, Control Variables (Company Size, Leverage), Audit Committee, Financial Performance</t>
+  </si>
+  <si>
+    <t>The research sample consists of 32 banking companies listed on the Indonesia Stock Exchange from 2017 to 2021. This study utilizes the Structural Equation Model-Partial Least Squares (SEM-PLS) analysis with WarpPLS.</t>
+  </si>
+  <si>
+    <t>The measurement model in this study is a formative measurement model, where the indicator weights must be statistically significant and multicollinearity is assessed with a value of VIF &lt; 3.3. Meanwhile, the structural model is evaluated based on the coefficient of determination (R-squared) with values of 0.75, 0.50, and 0.25 for each dependent variable, which can be interpreted as substantial, moderate, and weak, respectively; predictive relevance (Q-squared) with a value &gt; 0, indicating that independent variables have predictive relevance to the dependent variables, and effect size or the contribution of each independent variable to the dependent variable, which is categorized as weak (0.02), medium (0.15), and large (0.35) (Sholihin &amp; Ratmono, 2013). 
+Moderate regression analysis (MRA) is performed to determine whether the moderation test is classified as pure moderator, quasi moderator, homologizer moderator, or predictor moderator (Ghozali, 2014). Hypothesis testing is done based on decision-making criteria using a significance value or p-value &lt; 0.05</t>
+  </si>
+  <si>
+    <t>Indicator Weight, Variance Inflation Factor (VIF), R-Square, Q-Square, Effect Size, Pengujian Hipotesis</t>
+  </si>
+  <si>
+    <t>0.11 atau 11%</t>
+  </si>
+  <si>
+    <t>Is Corporate Social Responsibility Able to Mediate Increased Tax Avoidance?</t>
+  </si>
+  <si>
+    <t>Kiryanto, Alfiana Rohmatika, Farikha Amilahaq</t>
+  </si>
+  <si>
+    <t>https://ejournal.umm.ac.id/index.php/jrak/article/view/16470</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.22219/jrak.v11i2.16470</t>
+  </si>
+  <si>
+    <t>Tax Avoidance, Corporate Social Responsibility (CSR), Profitability, Company Growth, Institutional Ownership Structure</t>
+  </si>
+  <si>
+    <t>The measurement model or outer model describes the relationship between indicators and their latent variables. The indicators in this study are formative. Then the measurement model test must meet 2 requirements, namely the indicator weight and the value of the variance inflation factor (VIF). The data used to test the outer model is presented in Table 6 and Table 7.</t>
+  </si>
+  <si>
+    <t>0.27 atau 27% dan 0.28 atau 28%</t>
+  </si>
+  <si>
+    <t>Goodness of Fit (APC, ARS, dst), Pengujian Hipotesis, R-Square, Indicator Weight, VIF, Q-Square</t>
+  </si>
+  <si>
+    <t>The sample used in this research is financial reports of manufacturing companies listed on the Indonesia Stock Exchange (BEI) 2016-2019, while the method in this study uses purposive sampling with a total of 32 samples of manufacturing companies. The analysis technique used is WarpPLS version 5.0</t>
+  </si>
+  <si>
+    <t>Jurnal ASET (Akuntansi Riset)</t>
+  </si>
+  <si>
+    <t>2086-2563</t>
+  </si>
+  <si>
+    <t>2541-0342</t>
+  </si>
+  <si>
+    <t>Selpiyanti, Zaki Fakhroni</t>
+  </si>
+  <si>
+    <t>Pengaruh Implementasi Green Accounting dan Material Flow Cost Accounting Terhadap Sustainable Development</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17509/jaset.v12i1.23281</t>
+  </si>
+  <si>
+    <t>https://ejournal.upi.edu/index.php/aset/article/view/23281</t>
+  </si>
+  <si>
+    <t>Implementasi Green Accounting, Material Flow Cost Accounting, Sustainable Development</t>
+  </si>
+  <si>
+    <t>Sampel pada penelitian ini sebanyak 5 perusahaan yang bergerak dalam industry kelapa sawit yang telah mengikuti program PROPER. Perusahaan yang masuk dalam sampel penelitian ini adalah PT Agro Astra Lestari Tbk, PT Provident Agro Tbk, PT Sampoerna Agro Tbk, PT Sawit Sumbermas Sarana Tbk dan PT Sinar Mas Agro Tbk.</t>
+  </si>
+  <si>
+    <t>Uji Hipotesis, Effect Size</t>
+  </si>
+  <si>
+    <t>Belum Tau (Diartikel Belum Ada Informasinya)</t>
+  </si>
+  <si>
+    <t>Sampel yang digunakan dalam penelitian ini sebanyak 5 perusahaan kelapa sawit terdaftar di Bursa Efek Indonesia menggunakan teknik purvosive sampling.</t>
   </si>
 </sst>
 </file>
@@ -602,10 +727,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,7 +744,8 @@
     <col min="7" max="7" width="37.5703125" style="1" customWidth="1"/>
     <col min="8" max="9" width="39.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="44.42578125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="39.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="39.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="56.28515625" style="1" customWidth="1"/>
     <col min="13" max="13" width="34.85546875" style="1" customWidth="1"/>
     <col min="14" max="14" width="33.85546875" style="1" customWidth="1"/>
     <col min="15" max="15" width="28.85546875" style="1" customWidth="1"/>
@@ -1005,7 +1132,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1065,6 +1192,263 @@
       </c>
       <c r="V7" s="1" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="270" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1078,6 +1462,14 @@
     <hyperlink ref="H6" r:id="rId7" xr:uid="{4947961D-9C34-488C-AAB6-CF95AA41287E}"/>
     <hyperlink ref="H7" r:id="rId8" xr:uid="{5E53BD46-9FB1-445F-B793-BDFC59680B2C}"/>
     <hyperlink ref="I7" r:id="rId9" xr:uid="{6A466506-4304-48B8-8D34-A83C67D4D26D}"/>
+    <hyperlink ref="H8" r:id="rId10" xr:uid="{A5B9D73B-318E-4CBD-BAA1-790A4A543FFA}"/>
+    <hyperlink ref="I8" r:id="rId11" xr:uid="{37540D86-72B0-4086-A398-B9C4CF2F8AB4}"/>
+    <hyperlink ref="H9" r:id="rId12" xr:uid="{4A208483-4035-4430-A958-B1D557F9445D}"/>
+    <hyperlink ref="I9" r:id="rId13" xr:uid="{DA50CC73-3F36-4423-8B75-5AEE1831D4F7}"/>
+    <hyperlink ref="H10" r:id="rId14" xr:uid="{4CE95FF9-2E02-43A5-8CF1-CE9588A5CD01}"/>
+    <hyperlink ref="I10" r:id="rId15" xr:uid="{384CEC85-DC46-4DBF-B0DE-B69FC6864A1F}"/>
+    <hyperlink ref="I11" r:id="rId16" xr:uid="{1D3F193A-9373-4121-BF2A-EE486CE8009B}"/>
+    <hyperlink ref="H11" r:id="rId17" xr:uid="{750D85B3-E674-454A-932C-12D686BC5AE3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/myapp/Data Excel.xlsx
+++ b/myapp/Data Excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEBSITE\PRANAUGI.COM\PENELUSURAN LITERATUR\Penelitian yang Menggunakan Metode Analisis Data CFA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEBSITE\PRANAUGI.COM\PENELUSURAN LITERATUR\Aplikasi PLS SEM pada Data Kinerja Keuangan pada Perusahaan yang Terdaftar di BEI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663FAD0D-B46B-438A-B241-896C82EDFF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332878D6-229E-47B2-B170-C75C7F9FD0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="122">
   <si>
     <t>Judul</t>
   </si>
@@ -42,6 +42,15 @@
     <t>Software yang Digunakan</t>
   </si>
   <si>
+    <t>Ada Variabel Mediasi</t>
+  </si>
+  <si>
+    <t>Ada Variabel Moderasi</t>
+  </si>
+  <si>
+    <t>Ada Variabel Laten dengan Jumlah Indikator &gt; 1</t>
+  </si>
+  <si>
     <t>Link Artikel</t>
   </si>
   <si>
@@ -54,12 +63,24 @@
     <t>Sekilas Tentang Data (1)</t>
   </si>
   <si>
+    <t>Sekilas Tentang Data (2)</t>
+  </si>
+  <si>
+    <t>Informasi Lain-Lain</t>
+  </si>
+  <si>
     <t>Jurnal</t>
   </si>
   <si>
     <t>Ada Gambar Kerangka Penelitian?</t>
   </si>
   <si>
+    <t>Statistik PLS-SEM</t>
+  </si>
+  <si>
+    <t>Jurnal Ilmiah Akuntansi Kesatuan</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -69,9 +90,27 @@
     <t>E-ISSN</t>
   </si>
   <si>
+    <t>2337-7852</t>
+  </si>
+  <si>
+    <t>2721-3048</t>
+  </si>
+  <si>
+    <t>The Role of Corporate Social Responsibility and Intellectual Capital on Company Value in the Banking Sector</t>
+  </si>
+  <si>
+    <t>Eliza Junia Sari, Elsa Meirina</t>
+  </si>
+  <si>
+    <t>https://jurnal.ibik.ac.id/index.php/jiakes/article/view/2331</t>
+  </si>
+  <si>
     <t>Ada</t>
   </si>
   <si>
+    <t>Corporate Social Responsibility (X1), Intellectual Capital (X2), Good Corporate Governance (M), Company Value (Y)</t>
+  </si>
+  <si>
     <t>SmartPLS</t>
   </si>
   <si>
@@ -84,224 +123,277 @@
     <t>Ya</t>
   </si>
   <si>
-    <t>Uji Validitas dan Reliabilitas Skala Motivasi Kerja, Disiplin Kerja dan Kinerja Karyawan Bank</t>
-  </si>
-  <si>
-    <t>Journal of Management and Business Applications (JAMB)</t>
-  </si>
-  <si>
-    <t>2723-6056</t>
-  </si>
-  <si>
-    <t>2723:6048</t>
-  </si>
-  <si>
-    <t>Tsurayya Syarif Zain, Sari Lestari Zainal Ridho, Raras Risia Yogasnumurti, Heni Yuvita</t>
-  </si>
-  <si>
-    <t>https://jurnal.polsri.ac.id/index.php/JAMB/article/view/8748</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5281/zenodo.12755000</t>
-  </si>
-  <si>
-    <t>Motivasi Kerja, Disiplin Kerja dan Kinerja Karyawan Bank</t>
-  </si>
-  <si>
-    <t>Statistik CFA</t>
-  </si>
-  <si>
-    <t>Mplus</t>
-  </si>
-  <si>
-    <t>Untuk model skala disiplin kerja, uji CFA menunjukkan nilai RMSEA (Root Mean Square Error Of Approximation) Estimate sebesar 0,151 90 Percent C.I. 0,112 0,190 Probability RMSEA &lt;= .05 yang berarti model skala disiplin dikatakan tidak fit. Hal ini dikarenakan terdapat 2 item skala yang tidak signifikan (&lt;1,96). Model skala disiplin kerja pada penelitian ini telah dimodifikasi dengan menghilangkan 2 item dan hasilnya fit. Maka uji validitas pada skala disiplin kerja telah dinyatakan fit. Maka skala motivasi kerja, disiplin kerja dan kinerja karyawan yang telah dimodifikasi dan divalidasi secara signifikan mampu mengukur indikator-indikator yang ditetapkan.</t>
-  </si>
-  <si>
-    <t>Informasi Lain-Lain (2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">konstruk motivasi: nilai RMSEA = 0.105, nilai p-value = 0.02254 (sehingga model pada skala motivasi dikatakan tidak fit. Langkah selanjutnya peneliti melakukan modifikasi . . . . . (halaman 70)
-pada model skala disiplin, nilai RMSEA = 0.151, nilai probability RMSEA &lt;= 0.05 . . . . </t>
-  </si>
-  <si>
-    <t>Informasi Lain-Lain (1)</t>
-  </si>
-  <si>
-    <t>Penelitian dilakukan pada Bank Sumsesl Babel KC Palembang. Jumlah subjek penelitian berjumlah 68 orang</t>
-  </si>
-  <si>
-    <t>RMSEA, Probability, TLI, CFI</t>
-  </si>
-  <si>
-    <t>Informasi Lain-Lain (3)</t>
-  </si>
-  <si>
-    <t>Motivasi ada 10 item indikator
-Disiplin ada 10 item indikator
-Kinerja Karyawan ada 10 item indikator
-Halaman 70</t>
-  </si>
-  <si>
-    <t>Validitas Dan Reliabilitas Contextual performance Menggunakan Confirmatory Analisis Faktor (CFA)</t>
-  </si>
-  <si>
-    <t>Jurnal Penelitian IPTEKS</t>
-  </si>
-  <si>
-    <t>2459-9921</t>
-  </si>
-  <si>
-    <t>2528-0570</t>
-  </si>
-  <si>
-    <t>http://jurnal.unmuhjember.ac.id/index.php/PENELITIAN_IPTEKS/article/view/5689</t>
-  </si>
-  <si>
-    <t>Contextual Performance</t>
-  </si>
-  <si>
-    <t>Loading Faktor (Outer Loading atau Standardized Loading Factor), Average Variance Extracted (AVE), uji reliabilitas (composite reliability &amp; Cronbach's alpha), validitas konvergen, validitas diskriminan</t>
-  </si>
-  <si>
-    <t>Penelitian ini menggunakan sampel Guru SMK 1 Muhammadiyah Gunung Kidul dan guru SMK 1 Muhammadiyah Yogyakarta sebanyak 63 orang dengan menggunakan teknik probabilitas atau simple random sampling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uji validitas konstruk dilakukan dengan melihat nilai validitas konvergen yang bertujuan untuk mengukur berapa besar korelasi antar variabel. Selain itu uji validitas deskriminan juga dilakukan untuk mengukur korelasi variabel laten dengan konstruk dengan melihat standardized factor loading. Syarat uji validitas dengan ketentuan nilai loading factor&gt; 0,5. Berikut nilai validitas konvergen dan nilai AVE dapat dilihat pada gambar. </t>
-  </si>
-  <si>
-    <t>Variabel Diukur dengan Dimensi-Dimensi</t>
-  </si>
-  <si>
-    <t>Motivasi intrinsik yang tercermin dalam penelitian ini meliputi 3 faktor yaitu achievement, power, dan job resources (Furham, 2009), (Stroh, 2001), (Ko &amp; Jun, 2015), (Edey Gamassou, 2014), (Hon &amp; Leung, 2011). Penelitian ini menggunakan 3 faktor dengan 27 indikator yang diujikan pada karyawan PT. XYZ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hasil pembagian kuesioner secara online yang saya lakukan di PT. XYZ, responden pada penelitian ini berjumlah 55 orang yang merupakan pejabat eselon 3PT. XYZ. Responden yang dipilih berdasarkan kriteria karyawan berada di posisi eselon 3 hingga lini di bawahnya yaitu 54 orang bekerja di PT. XYZlebih dari 6 tahun dan 1 orang kurang dari setahun. </t>
-  </si>
-  <si>
-    <t>Jurnal INOBIS Inovasi Bisnis dan Manajemen Indonesia</t>
-  </si>
-  <si>
-    <t>2614-0462</t>
-  </si>
-  <si>
-    <t>Carolina Novi Mustikarini, Erlyta Maulidya Rahmah, Justin Wijaya, Sinar Dharmayana Putra, Novika Ayu Triany, Natali Ikawidjaja</t>
-  </si>
-  <si>
-    <t>Januariya Laili, Erita Yuliasesti Diah Sari, Ciptasari Prabawati</t>
-  </si>
-  <si>
-    <t>Faktor-Faktor Motivasi Intrinsik Karyawan PT. XYZ (Studi pada Penerapan Strategic Holding Pejabat Eselon 3)</t>
-  </si>
-  <si>
-    <t>https://inobis.org/ojs/index.php/jurnal-inobis/article/view/286</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.31842/jurnalinobis.v6i3.286</t>
-  </si>
-  <si>
-    <t>Motivasi Intrinsik (Dimensi: Achievement, Power, Job Resource)</t>
-  </si>
-  <si>
-    <t>Peneliti menggunakan metode analisis faktor konfirmatori atau Confirmatory factor analysis (CFA). Abdillah &amp; Jogiyanto (2015) mengatakan CFA adalah teknik yang digunakan untuk mengukur jumlah faktor dan skor loading variabel. CFA merupakan metode untuk menguji teori konseptual dalam menjelaskan perbedaan indikator yang merepresentasikan secara analitik. CFA akan menghasilkan model penelitian tentang pemahaman kualitas pengukuran konstruk dengan lebih baik.</t>
-  </si>
-  <si>
-    <t>Belum Tau (Tidak Ada Informasi)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loading, AVE, Communality, R, Redundancy, Validitas Diskriminan (Cross-Loading), Reliabilitas (Cronbach's Alpha &amp; Composite Reliability), R-Square </t>
-  </si>
-  <si>
-    <t>Gugun Gusmanida, Hironimus Sujati, Herwin</t>
-  </si>
-  <si>
-    <t>Testing the Construct Validity and Reliability of the Student Learning Motivation Scale Using Confirmatory Factor Analysis (CFA)</t>
-  </si>
-  <si>
-    <t>Jurnal Penelitian Pendidikan IPA</t>
-  </si>
-  <si>
-    <t>2407-795X</t>
-  </si>
-  <si>
-    <t>2460-2582</t>
-  </si>
-  <si>
-    <t>https://jppipa.unram.ac.id/index.php/jppipa/article/view/7518</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.29303/jppipa.v10i7.7518</t>
-  </si>
-  <si>
-    <t>LISREL</t>
-  </si>
-  <si>
-    <t>Student Learning Motivation (Ada 4 Dimensi)</t>
-  </si>
-  <si>
-    <t>The two results of second-order confirmatory factor analysis (CFA) are the determination of factor loadings (λ) of each item and the factors that develop the scale.</t>
-  </si>
-  <si>
-    <t>Factor Loading, Construct Validity, Convergent Validity, average variance extracted (AVE), discriminant validity, Reliability Test (Cronbach's alpha)</t>
-  </si>
-  <si>
-    <t>Data collection was carried out by distributing learning motivation questionnaires to students. Data was obtained from 300 respondents who filled out the survey. The learning motivation questionnaire used is in accordance with the research variable construct which consists of 20 items from four aspects. This questionnaire uses a Likert scale; strongly agree, agree, disagree, disagree and strongly disagree.</t>
-  </si>
-  <si>
-    <t>Construction and Validation of Evaluation Instruments for Science Learning Programs Based on Context, Input, Process, And Product (CIPP) Models</t>
-  </si>
-  <si>
-    <t>Cindy Alvianita, Tanti Tanti, Bambang Hariyadi</t>
-  </si>
-  <si>
-    <t>https://jppipa.unram.ac.id/index.php/jppipa/article/view/1369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Researchers distributed instruments to 112 participants for the quantitative stage of the validation test. The instrument was validated in three stages. The first stage is the face validity test, the second stage is the Exploratory Factor Analysis (EFA) test, and the last stage is the Confirmatory Factor Analysis (CFA) test. </t>
-  </si>
-  <si>
-    <t>The results of face validity conducted with two experts stated that each indicator developed had followed the flow of the Context, Input, Process, and Product (CIPP) model. Exploratory Factor Analysis Test Based on scree plot data, it was found that there was a fault after the four components, and the researcher decided to take four elements with a total variance of 50.95%. The confirmatory Factor Analysis (CFA) test showed that from 47 items, only 35 items were declared valid. This research has positive implications for the practice of integrated science learning at the junior high school level in Indonesia. Principals and teachers can use this CIPP-based evaluation instrument to evaluate the effectiveness of the integrated science learning process that has been carried out so far</t>
-  </si>
-  <si>
-    <t>Science Learning Programs Based on Context, Input, Process, And Product (CIPP) Models</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Several assessment indicators on factor analysis include measurement of Kaiser Meyer Olkin (KMO) value, Bartlett's value, loading factor, eigenvalue, scree plot, and rotation of Oblimin with Kaiser Normalization. Furthermore, the CFA test was carried out using variance-based structural equation modeling (SEM with PLS). </t>
-  </si>
-  <si>
-    <t>SEM with PLS (Namun Tidak Ada Informasi Softwarenya Apa) (Halaman 1093)</t>
-  </si>
-  <si>
-    <t>standardized factor loadings and reliability for the final CFA model. Cronbach's Alpha, AVE</t>
-  </si>
-  <si>
-    <t>Verifying the instrument's validity was carried out through a confirmatory factor analysis test using Lisrel8.8 software. In a fit model, the goodness of fit criteria is obtained, shown in Table 3</t>
-  </si>
-  <si>
-    <t>Investigating the Attitudes of Chemistry Students Towards Blended Learning: A Survey Cross Sectional</t>
-  </si>
-  <si>
-    <t>Nur Huda, Eli Rohaeti, Jaslin Ikhsan</t>
-  </si>
-  <si>
-    <t>https://jppipa.unram.ac.id/index.php/jppipa/article/view/2784</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.29303/jppipa.v9i4.2784</t>
-  </si>
-  <si>
-    <t>This study used a quantitative approach with a cross-sectional survey method. Respondents were 201 students majoring in chemistry at a university in Surabaya, Indonesia.</t>
-  </si>
-  <si>
-    <t>Findings: 18 of the 21 questionnaire items fall into the valid and reliable category with a loading factor value greater than 0.50</t>
-  </si>
-  <si>
-    <t>Attitudes of Chemistry Students Towards Blended Learning</t>
-  </si>
-  <si>
-    <t>Chisq/df, RMSEA, GFI, NFI, CFI, AGFI, Loading Factor</t>
-  </si>
-  <si>
-    <t>The resulting CFA fit model is composed of three factors (dimensional) with 18 questionnaire items, which can be seen in Table 4.</t>
+    <t>The data collection technique used in this research is purposive sampling. The research samples were banking companies registered on the IDX with the number of samples used being 36 companies with a total of 5 years of research so that the final data used was 180 data. The research data analysis method uses Partial Least Squares (PLS) using the SmartPLS 4.0 application.</t>
+  </si>
+  <si>
+    <t>Nilai R-Squares</t>
+  </si>
+  <si>
+    <t>0.015 atau 1.5%</t>
+  </si>
+  <si>
+    <t>R-Squares, Uji Hipotesis</t>
+  </si>
+  <si>
+    <t>https://jurnal.ibik.ac.id/index.php/jiakes/article/view/386</t>
+  </si>
+  <si>
+    <t>Pengaruh Corporate Governance, Kepemilikan Asing Dan Audit Tenure Terhadap Integritas Laporan Keuangan</t>
+  </si>
+  <si>
+    <t>May Wulandari, Erna Hernawati, Husnah Nur Laela Ermaya</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.37641/jiakes.v8i3.386</t>
+  </si>
+  <si>
+    <t>Komite Audit, Komisaris Independen, Kepemilikan asing, Audit Tenure, Integritas Laporan Keuangan (Y)</t>
+  </si>
+  <si>
+    <t>Outer VIF values, R-Squares, Q-Square, Uji Hipotesis</t>
+  </si>
+  <si>
+    <t>Populasi dalam penelitian ini adalah Perusahaan manufaktur yang menerbitkan laporan keuangan tahunan (Annual Report) penelitian ini dilakukan mulai 2016-2018 selama 3 tahun periode. Pengambilan sampel dalam penelitian ini menggunakan purposive sampling (Siregar 2017, hlm.33). Data yang dipakai dapat diakses melalui website resmi Bursa Efek Indonesia (BEI) www.idx.co.id dan website masing-masing entitas. Teknik analisis data dalam penelitian ini yaitu structural equation model (SEM) menggunakan aplikasi Smart Partial Least Square (PLS) version 3.2.2.</t>
+  </si>
+  <si>
+    <t>0.105 atau 10.5%</t>
+  </si>
+  <si>
+    <t>https://jurnal.ibik.ac.id/index.php/jiakes/article/view/2442</t>
+  </si>
+  <si>
+    <t>Dhian Kristantiningtyas, Maria Rosa Kumala Dewi</t>
+  </si>
+  <si>
+    <t>The Effect of Liquidity, Leverage and Company Size on Company Value with Corporate Social Responsibility as a Mediating Variable</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.37641/jiakes.v12i1.2442</t>
+  </si>
+  <si>
+    <t>Likuiditas, Leverage, Ukuran Perusahaan, Corporate Social Responsibility (CSR), Nilai Perusahaan</t>
+  </si>
+  <si>
+    <t>0.009 atau 0.9% dan 0.014 atau 1.4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This type of research is quantitative research with a purposive sampling method with 148 samples from 64 mining and agricultural sub sector companies listed on the Indonesia Stock Exchange. This subsector was chosen because this subsector is closely related to the surrounding environment. The analytical method used is mediation regression analysis using the program, SmartPLS. </t>
+  </si>
+  <si>
+    <t>Jurnal Akuntansi Multiparadigma</t>
+  </si>
+  <si>
+    <t>2086-7603</t>
+  </si>
+  <si>
+    <t>2089-5879</t>
+  </si>
+  <si>
+    <t>KONSTRUKSI MODEL PENGUKURAN KINERJA DAN KERANGKA KERJA PENGUNGKAPAN MODAL INTELEKTUAL</t>
+  </si>
+  <si>
+    <t>Ihyaul Ulum, Imam Ghozali, Agus</t>
+  </si>
+  <si>
+    <t>https://jamal.ub.ac.id/index.php/jamal/article/view/314/317</t>
+  </si>
+  <si>
+    <t>WarpPLS</t>
+  </si>
+  <si>
+    <t>kerangka kerja pengungkapan modal intelektual (Intellectual Capital Disclosure/ICD), kinerja modal intelektual yang diukur dengan Modified VAIC, (MVAIC) dengan kapitalisasi pasar (MCAP)</t>
+  </si>
+  <si>
+    <t>Data diperoleh dari perusahaan sektor perbankan yang terdaftar di BEI untuk tahun 2006, 2009, dan 2012. WarpPLS 3.0 digunakan sebagai alat analisis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02 atau 2% &amp; 0.10 atau 10% </t>
+  </si>
+  <si>
+    <t>Model Fit (APC, AVIF, ARS, dst), Pengujian Hipotesis, R-Squares, Effect Size</t>
+  </si>
+  <si>
+    <t>Ada informasi menarik di Tabel 4. Ringkasan Penelitian tentang ICP dan Nilai Pasar / MCAP</t>
+  </si>
+  <si>
+    <t>PERAN DEWAN PENGAWAS SYARIAH DALAM PENGUNGKAPAN ISLAMIC SOSIAL
+REPORTING</t>
+  </si>
+  <si>
+    <t>Hasan Mukhibad</t>
+  </si>
+  <si>
+    <t>https://jamal.ub.ac.id/index.php/jamal/article/view/1024/pdf</t>
+  </si>
+  <si>
+    <t>Profil Dewan Pengawas Syariah, Ukuran Perusahaan, Ukuran Dewan Komisaris, Leverage, Umur Perusahaan, Islamic Social Reporting, Kinerja Keuangan</t>
+  </si>
+  <si>
+    <t>0.71 atau 71% dan 0.06 atau 6%</t>
+  </si>
+  <si>
+    <t>Hal ini mengindikasikan bahwa jumlah dewan komisaris yang dimiliki mempengaruhi secara signifikan terhadap luasan ISR disclosure pada tingkat 10% dan tidak signifikan pada tingkat 5%. Ada loading factor &lt; 0.7, seperti nilai loading factor dari Rata-rata tingkat pendidikan DPS = 0.16 dan Account Holders (IAH) = 0.141</t>
+  </si>
+  <si>
+    <t>Loading, Model Fit (APC, AVIF, ARS, dst), Pengujian Hipotesis, R-Squares (R2)</t>
+  </si>
+  <si>
+    <t>Riset Akuntansi dan Keuangan Indonesia</t>
+  </si>
+  <si>
+    <t>1411-6510</t>
+  </si>
+  <si>
+    <t>2541-6111</t>
+  </si>
+  <si>
+    <t>The Effect of The Carbon and Environmental Performance on Sustainability Report</t>
+  </si>
+  <si>
+    <t>Maya Indriastuti, Anis Chariri</t>
+  </si>
+  <si>
+    <t>https://journals2.ums.ac.id/index.php/reaksi/article/view/9647</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.23917/reaksi.v6i1.13826</t>
+  </si>
+  <si>
+    <t>Carbon Performance, Environmental Performance, Financial Performance, Sustainability Report</t>
+  </si>
+  <si>
+    <t>0.286 atau 28.6% &amp; 0.133 atau 13.3%</t>
+  </si>
+  <si>
+    <t>Convergent Validity, Average Variance Extracted (AVE), outer loading, Discriminant Validity, Composite Reliability, Cronbach alpha, Cross Loadings, Coefficient of Determination, Uji Hipotesis, Effect sizes, Effect sizes of indirect effects</t>
+  </si>
+  <si>
+    <t>The population of this research comprised mining companies listed on the Indonesia stock exchange in 2015-2019. The total samples obtained were 80 companies for five years. All data related to the research variables were processed using the structural equation modelling (SEM-WarpPLS) method.</t>
+  </si>
+  <si>
+    <t>Manajemen Laba Dan Kecurangan Laporan Keuangan: Industri Pariwisata Dan Rekreasi Di Indonesia</t>
+  </si>
+  <si>
+    <t>Jurnal Reviu Akuntansi dan Keuangan</t>
+  </si>
+  <si>
+    <t>2088-0685</t>
+  </si>
+  <si>
+    <t>2615-2223</t>
+  </si>
+  <si>
+    <t>Mimelientesa Irman, Silfi Putri Anjani, Yenny Wati</t>
+  </si>
+  <si>
+    <t>https://ejournal.umm.ac.id/index.php/jrak/article/view/26500</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.22219/jrak.v13i2.26500</t>
+  </si>
+  <si>
+    <t>Finansial Target (ROA), Finansial Leverage (LEV), Finansial Stabilitas (ACHANGE) (DAR), Ukuran Perusahaan, Manajemen Laba, Kecurangan Laporan Keuangan</t>
+  </si>
+  <si>
+    <t>The objective of this study was to determine the impact of financial target, financial leverage, financial stability, and company size on earnings management and their effect on financial reporting fraud in tourism and recreation industry companies traded on the Indonesia Stock Exchange for the 2017-2021 period.
+This study uses secondary data, namely data obtained indirectly. The sampling technique in this study used a purposive sampling technique. There were 90 observation samples of data obtained. The analytical method of this research uses descriptive analysis and several types of evaluation using SmartPLS software.</t>
+  </si>
+  <si>
+    <t>0.057 atau 5.7% dan 0.056 atau 5.6%</t>
+  </si>
+  <si>
+    <t>R-Square, Pengujian Hipotesis, VIF</t>
+  </si>
+  <si>
+    <t>How Audit Committee Address The Effects Of Political Connections And Government Ownership In Banking Sector</t>
+  </si>
+  <si>
+    <t>Rini Dwiyuna Ningsih, Indayani Indayani, Fifi Yusmita</t>
+  </si>
+  <si>
+    <t>https://ejournal.umm.ac.id/index.php/jrak/article/view/28700</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.22219/jrak.v14i1.28700</t>
+  </si>
+  <si>
+    <t>Political Connection, Government Ownership, Change in Loans, Control Variables (Company Size, Leverage), Audit Committee, Financial Performance</t>
+  </si>
+  <si>
+    <t>The research sample consists of 32 banking companies listed on the Indonesia Stock Exchange from 2017 to 2021. This study utilizes the Structural Equation Model-Partial Least Squares (SEM-PLS) analysis with WarpPLS.</t>
+  </si>
+  <si>
+    <t>The measurement model in this study is a formative measurement model, where the indicator weights must be statistically significant and multicollinearity is assessed with a value of VIF &lt; 3.3. Meanwhile, the structural model is evaluated based on the coefficient of determination (R-squared) with values of 0.75, 0.50, and 0.25 for each dependent variable, which can be interpreted as substantial, moderate, and weak, respectively; predictive relevance (Q-squared) with a value &gt; 0, indicating that independent variables have predictive relevance to the dependent variables, and effect size or the contribution of each independent variable to the dependent variable, which is categorized as weak (0.02), medium (0.15), and large (0.35) (Sholihin &amp; Ratmono, 2013). 
+Moderate regression analysis (MRA) is performed to determine whether the moderation test is classified as pure moderator, quasi moderator, homologizer moderator, or predictor moderator (Ghozali, 2014). Hypothesis testing is done based on decision-making criteria using a significance value or p-value &lt; 0.05</t>
+  </si>
+  <si>
+    <t>Indicator Weight, Variance Inflation Factor (VIF), R-Square, Q-Square, Effect Size, Pengujian Hipotesis</t>
+  </si>
+  <si>
+    <t>0.11 atau 11%</t>
+  </si>
+  <si>
+    <t>Is Corporate Social Responsibility Able to Mediate Increased Tax Avoidance?</t>
+  </si>
+  <si>
+    <t>Kiryanto, Alfiana Rohmatika, Farikha Amilahaq</t>
+  </si>
+  <si>
+    <t>https://ejournal.umm.ac.id/index.php/jrak/article/view/16470</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.22219/jrak.v11i2.16470</t>
+  </si>
+  <si>
+    <t>Tax Avoidance, Corporate Social Responsibility (CSR), Profitability, Company Growth, Institutional Ownership Structure</t>
+  </si>
+  <si>
+    <t>The measurement model or outer model describes the relationship between indicators and their latent variables. The indicators in this study are formative. Then the measurement model test must meet 2 requirements, namely the indicator weight and the value of the variance inflation factor (VIF). The data used to test the outer model is presented in Table 6 and Table 7.</t>
+  </si>
+  <si>
+    <t>0.27 atau 27% dan 0.28 atau 28%</t>
+  </si>
+  <si>
+    <t>Goodness of Fit (APC, ARS, dst), Pengujian Hipotesis, R-Square, Indicator Weight, VIF, Q-Square</t>
+  </si>
+  <si>
+    <t>The sample used in this research is financial reports of manufacturing companies listed on the Indonesia Stock Exchange (BEI) 2016-2019, while the method in this study uses purposive sampling with a total of 32 samples of manufacturing companies. The analysis technique used is WarpPLS version 5.0</t>
+  </si>
+  <si>
+    <t>Jurnal ASET (Akuntansi Riset)</t>
+  </si>
+  <si>
+    <t>2086-2563</t>
+  </si>
+  <si>
+    <t>2541-0342</t>
+  </si>
+  <si>
+    <t>Selpiyanti, Zaki Fakhroni</t>
+  </si>
+  <si>
+    <t>Pengaruh Implementasi Green Accounting dan Material Flow Cost Accounting Terhadap Sustainable Development</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17509/jaset.v12i1.23281</t>
+  </si>
+  <si>
+    <t>https://ejournal.upi.edu/index.php/aset/article/view/23281</t>
+  </si>
+  <si>
+    <t>Implementasi Green Accounting, Material Flow Cost Accounting, Sustainable Development</t>
+  </si>
+  <si>
+    <t>Sampel pada penelitian ini sebanyak 5 perusahaan yang bergerak dalam industry kelapa sawit yang telah mengikuti program PROPER. Perusahaan yang masuk dalam sampel penelitian ini adalah PT Agro Astra Lestari Tbk, PT Provident Agro Tbk, PT Sampoerna Agro Tbk, PT Sawit Sumbermas Sarana Tbk dan PT Sinar Mas Agro Tbk.</t>
+  </si>
+  <si>
+    <t>Uji Hipotesis, Effect Size</t>
+  </si>
+  <si>
+    <t>Belum Tau (Diartikel Belum Ada Informasinya)</t>
+  </si>
+  <si>
+    <t>Sampel yang digunakan dalam penelitian ini sebanyak 5 perusahaan kelapa sawit terdaftar di Bursa Efek Indonesia menggunakan teknik purvosive sampling.</t>
   </si>
 </sst>
 </file>
@@ -635,11 +727,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,28 +747,30 @@
     <col min="11" max="11" width="39.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="56.28515625" style="1" customWidth="1"/>
     <col min="13" max="13" width="34.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="40.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="53.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="88.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="70.140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="62.140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="88.85546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="21.7109375" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="14" width="33.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="28.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="52.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="40.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="53.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="88.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="42.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="70.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="30" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -688,48 +782,57 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>21</v>
@@ -738,354 +841,635 @@
         <v>22</v>
       </c>
       <c r="E2" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="I2" s="2"/>
       <c r="J2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="1" t="s">
+      <c r="M3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="4" spans="1:19" ht="165" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2023</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>57</v>
-      </c>
     </row>
-    <row r="5" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2024</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>69</v>
-      </c>
     </row>
-    <row r="6" spans="1:19" ht="195" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>78</v>
+        <v>30</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E7" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="1">
         <v>2023</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="270" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>90</v>
+      <c r="E9" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+    <row r="10" spans="1:22" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+    <row r="11" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{9FCB7650-EDF9-4623-B844-501A7C10D95A}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{A20F93BA-59E1-4BE3-A2AD-6F62D63A489D}"/>
-    <hyperlink ref="H3" r:id="rId3" xr:uid="{30B8E902-03B1-4C7B-82B5-CF505A3C1677}"/>
-    <hyperlink ref="H4" r:id="rId4" xr:uid="{DCBD2A2D-166D-4F76-8117-9817841F9C04}"/>
-    <hyperlink ref="I4" r:id="rId5" xr:uid="{C210D005-B5E2-4A7F-A987-B0D6BDD69B9F}"/>
-    <hyperlink ref="H5" r:id="rId6" xr:uid="{0BC9C556-119B-49F9-83FD-5F268E874C34}"/>
-    <hyperlink ref="I5" r:id="rId7" xr:uid="{C4362E8E-D00E-452B-8E1F-F020DE5445FA}"/>
-    <hyperlink ref="H6" r:id="rId8" xr:uid="{34DE0306-71CA-415B-B719-A95C593D7D67}"/>
-    <hyperlink ref="H7" r:id="rId9" xr:uid="{BD4A5216-B6CE-4E49-864C-51AE8BFE5A62}"/>
-    <hyperlink ref="I7" r:id="rId10" xr:uid="{0C5976A8-F898-4557-B830-D2A5CCF0329E}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{6CFB59F0-D339-4388-8771-5E16CCD95AEA}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{1BFF55DF-6F88-4A6E-AC95-09BEB26B2CE6}"/>
+    <hyperlink ref="I3" r:id="rId3" xr:uid="{0D64B7E7-8E0E-4630-B048-B5890C866FEB}"/>
+    <hyperlink ref="H4" r:id="rId4" xr:uid="{2892DF8B-C819-46B0-B4A3-2493D33A13EA}"/>
+    <hyperlink ref="I4" r:id="rId5" xr:uid="{DEC45446-34B0-46BE-A36B-B0265273D961}"/>
+    <hyperlink ref="H5" r:id="rId6" xr:uid="{980F2BD1-0D71-4810-BB91-749269430908}"/>
+    <hyperlink ref="H6" r:id="rId7" xr:uid="{4947961D-9C34-488C-AAB6-CF95AA41287E}"/>
+    <hyperlink ref="H7" r:id="rId8" xr:uid="{5E53BD46-9FB1-445F-B793-BDFC59680B2C}"/>
+    <hyperlink ref="I7" r:id="rId9" xr:uid="{6A466506-4304-48B8-8D34-A83C67D4D26D}"/>
+    <hyperlink ref="H8" r:id="rId10" xr:uid="{A5B9D73B-318E-4CBD-BAA1-790A4A543FFA}"/>
+    <hyperlink ref="I8" r:id="rId11" xr:uid="{37540D86-72B0-4086-A398-B9C4CF2F8AB4}"/>
+    <hyperlink ref="H9" r:id="rId12" xr:uid="{4A208483-4035-4430-A958-B1D557F9445D}"/>
+    <hyperlink ref="I9" r:id="rId13" xr:uid="{DA50CC73-3F36-4423-8B75-5AEE1831D4F7}"/>
+    <hyperlink ref="H10" r:id="rId14" xr:uid="{4CE95FF9-2E02-43A5-8CF1-CE9588A5CD01}"/>
+    <hyperlink ref="I10" r:id="rId15" xr:uid="{384CEC85-DC46-4DBF-B0DE-B69FC6864A1F}"/>
+    <hyperlink ref="I11" r:id="rId16" xr:uid="{1D3F193A-9373-4121-BF2A-EE486CE8009B}"/>
+    <hyperlink ref="H11" r:id="rId17" xr:uid="{750D85B3-E674-454A-932C-12D686BC5AE3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/myapp/Data Excel.xlsx
+++ b/myapp/Data Excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEBSITE\PRANAUGI.COM\PENELUSURAN LITERATUR\Aplikasi PLS SEM pada Data Kinerja Keuangan pada Perusahaan yang Terdaftar di BEI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332878D6-229E-47B2-B170-C75C7F9FD0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374F64C1-944C-4B4A-817F-F5B5F7AB109F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="188">
   <si>
     <t>Judul</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Sekilas Tentang Data (2)</t>
-  </si>
-  <si>
-    <t>Informasi Lain-Lain</t>
   </si>
   <si>
     <t>Jurnal</t>
@@ -394,6 +391,207 @@
   </si>
   <si>
     <t>Sampel yang digunakan dalam penelitian ini sebanyak 5 perusahaan kelapa sawit terdaftar di Bursa Efek Indonesia menggunakan teknik purvosive sampling.</t>
+  </si>
+  <si>
+    <t>Jurnal Manajemen dan Ekonomi Kreatif</t>
+  </si>
+  <si>
+    <t>2964-1632</t>
+  </si>
+  <si>
+    <t>2964-1241</t>
+  </si>
+  <si>
+    <t>Pengaruh Leverage dan Likuiditas Terhadap Kebijakan Dividen Pada Perusahaan Manufaktur di Bursa Efek Indonesia Tahun 2020 – 2023</t>
+  </si>
+  <si>
+    <t>Qatrunnada Salsabila, Oryza Sativa, Muhammad Nur Faizin Ramadhan, Isti Pujihastuti</t>
+  </si>
+  <si>
+    <t>https://ukitoraja.id/index.php/jumek/article/view/403</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.59024/jumek.v2i3.403</t>
+  </si>
+  <si>
+    <t>Leverage (X1), Likuiditas (X2), Kebijakan Dividen (Y)</t>
+  </si>
+  <si>
+    <t>Link Gambar Kerangka Penelitian</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1i4l3q6V4z_DxjZlPly4K_dv_H9_YmAli/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Informasi Lain-Lain (1)</t>
+  </si>
+  <si>
+    <t>Informasi Lain-Lain (2)</t>
+  </si>
+  <si>
+    <t>outer loading, Cronbach's alpha, composite reliability, average variance extracted, validitas diskriminan fornell-larcker &amp; HTMT, uji hipotesis, VIF, f-square, r-square, srmr, perbandingan uji model: RMSE, MAE, Model PLS SEM dan Model LM</t>
+  </si>
+  <si>
+    <t>ada nilai outer loading &lt; 0.7, yakni DER, Current Ratio dan DPR</t>
+  </si>
+  <si>
+    <t>pada perusahaan manufaktur di BEI periode 2020-2023</t>
+  </si>
+  <si>
+    <t>0.016 atau 1.6%</t>
+  </si>
+  <si>
+    <t>Paradoks : Jurnal Ilmu Ekonomi</t>
+  </si>
+  <si>
+    <t>2622-6383</t>
+  </si>
+  <si>
+    <t>Pengaruh Likuiditas dan Leverage Terhadap Nilai Perusahaan Dengan Profitabilitas Sebagai Variabel Moderasi (Perusahaan Subsektor Logam dan Sejenisnya Periode 2019-2023)</t>
+  </si>
+  <si>
+    <t>Vetty Damayanti Pulukadang, Moh. Agus Salim Monoarfa, Meriyana Fransissca, Dungga</t>
+  </si>
+  <si>
+    <t>https://jurnal.feb-umi.id/index.php/PARADOKS/article/view/1029</t>
+  </si>
+  <si>
+    <t>Likuiditas, Leverage, Profitabilitas, Nilai Perusahaan</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1mERZzg3_mKT7Mu-MOHblZvQMDouCQ0WT/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Dari gambar di atas, terdapat hasil dari pengujian convergent validitymodel di atas yaitu model dengan outer loading yang bernilai &lt; 0,7, diantaranya pada indikator X1.3 yang bernilai 0,403, X2.1 bernilai 0,642, Y1 bernilai 0,649, Z2 bernilai 0,602, dan Z3 bernilai 0,360. Sehingga kelima indikator tersebut harus dieliminasi. Berikut model yang setelah dilakukan eliminasi</t>
+  </si>
+  <si>
+    <t>statistik deskriptif, convergent validity, outer loading, discriminant validity fornel larcker, average variance extraxted, Cronbach's alpha, composite reliability, r square, f square, uji hipotesis</t>
+  </si>
+  <si>
+    <t>0.732 atau 73.2%</t>
+  </si>
+  <si>
+    <t>Populasi yang digunakan dalam penelitian ini yaitu perusahaan Subsektor Logam dan Sejenisnya yang terdaftar di BEI.</t>
+  </si>
+  <si>
+    <t>Journal of Social and Economics Research</t>
+  </si>
+  <si>
+    <t>2715-6117</t>
+  </si>
+  <si>
+    <t>2715-6966</t>
+  </si>
+  <si>
+    <t>ANALISIS PENGARUH UKURAN PERUSAHAAN DAN LIKUIDITAS TERHADAP NILAI PERUSAHAAN MELALUI STRUKTUR MODAL SEBAGAI VARIABEL INTERVENING (STUDI PADA PERUSAHAAN SEKTOR PROPERTY &amp; REAL ESTATE YANG TERDAFTAR DI BURSA EFEK INDONESIA (BEI) TAHUN 2018-2022)</t>
+  </si>
+  <si>
+    <t>Dian Alif Wilda Ningrum, Faridhatun Faidah, Hutomo Rusdianto</t>
+  </si>
+  <si>
+    <t>https://idm.or.id/JSER/index.php/JSER/article/view/245</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.54783/jser.v5i2.245</t>
+  </si>
+  <si>
+    <t>Ukuran Perusahaan, Likuiditas, Struktur Modal, Nilai Perusahaan</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19moPmmiaDdkOXZZFWl09L9vZ9IR2YcNM/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>statistik deskriptif, r square, q-square, uji hipotesis, mediasi</t>
+  </si>
+  <si>
+    <t>0.089 atau 8.9% dan 0.046 atau 4.6%</t>
+  </si>
+  <si>
+    <t>sector property &amp; real estate which are listed on the IDX for the 2018-2022 period</t>
+  </si>
+  <si>
+    <t>PENGARUH INTELLECTUAL CAPITAL DAN GOOD CORPORATE GOVERNANCE TERHADAP NILAI PERUSAHAAN YANG DIMEDIASI OLEH PROFITABILITAS PADA PERUSAHAAN PERBANKAN YANG TERDAFTAR DI BEI TAHUN 2018-2022</t>
+  </si>
+  <si>
+    <t>Titik Maesaroh Maesaroh, Faridhatun Faidah, Rhealin Hening Karatri</t>
+  </si>
+  <si>
+    <t>https://idm.or.id/JSER/index.php/JSER/article/view/270</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.54783/jser.v5i2.270</t>
+  </si>
+  <si>
+    <t>Intellectual Capital (X1), Good Corporate Governance (X2), Profitabilitas (Z), Nilai Perusahaan (Y)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1COq9WD7yi3rI3y8_gYkCJ4Nxr1N36ppY/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Statistik deskriptif, R-Square, Q-Square, Uji Hipotesis, Mediasi</t>
+  </si>
+  <si>
+    <t>in banking companies listed on the BEI in 2018-2022.</t>
+  </si>
+  <si>
+    <t>0.627 atau 62.7% dan 0.644 atau 64.4%</t>
+  </si>
+  <si>
+    <t>PENGARUH UKURAN PERUSAHAAN DAN PROFITABILITAS TERHADAP NILAI PERUSAHAAN DENGAN STRUKTUR MODAL SEBAGAI VARIABEL INTERVENING PADA PERUSAHAAN SUB SEKTOR TELEKOMUNIKASI YANG TERDAFTAR DI BEI PERIODE 2018-2022</t>
+  </si>
+  <si>
+    <t>Azka Nawalia Puteri, Faridhatun Faidah, Hutomo Rusdianto</t>
+  </si>
+  <si>
+    <t>https://idm.or.id/JSER/index.php/JSER/article/view/193</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.54783/jser.v5i2.193</t>
+  </si>
+  <si>
+    <t>Ukuran Perusahaan, Profitabilitas, Struktur Modal, Nilai Perusahaan</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1d5ffEzw6PmEq5ZR0zlfV_HnKHGfZDkgd/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>statistik deskriptif, r-square, q-square, uji hipotesis, mediasi</t>
+  </si>
+  <si>
+    <t>0.079 atau 7.9% dan 0.371 atau 37.1%</t>
+  </si>
+  <si>
+    <t>in telecommunications sub-sector companies listed on the IDX for the 2018-2022 period</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rgqNZlkFdVMKvj5O-WBAwpjzjpj0Wk0J/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>basic materials manufacturing companies listed on the BEI in 2018 2022</t>
+  </si>
+  <si>
+    <t>PENGARUH STRUKTUR MODAL, PERTUMBUHAN LABA, DAN INVESTMENT OPPORTUNITY SET (IOS) TERHADAP KUALITAS LABA DENGAN KOMITE AUDIT SEBAGAI VARIABEL MODERASI PADA PERUSAHAAN MANUFAKTUR SEKTOR BASIC MATERIALS YANG TERDAFTAR DI BEI TAHUN 2018-2022</t>
+  </si>
+  <si>
+    <t>Sania Khofsoh, Faridhatun Faidah, Hutomo Rusdianto</t>
+  </si>
+  <si>
+    <t>https://idm.or.id/JSER/index.php/JSER/article/view/254</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.54783/jser.v5i2.254</t>
+  </si>
+  <si>
+    <t>Struktur Modal (X1), Pertumbuhan Laba (X2), Investment Opportunity Set (X3), Komite Audit (Z), Kualitas Laba (Y)</t>
+  </si>
+  <si>
+    <t>statistik deskriptif, r square, q square, uji hipotesis</t>
+  </si>
+  <si>
+    <t>Agak bingung, kasusnya kan moderasi, kok di perjalanan hasil ada indirect atau mediasinya hehehehehe</t>
+  </si>
+  <si>
+    <t>0.508 atau 50.8%</t>
   </si>
 </sst>
 </file>
@@ -727,11 +925,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,33 +942,33 @@
     <col min="7" max="7" width="37.5703125" style="1" customWidth="1"/>
     <col min="8" max="9" width="39.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="44.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="39.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="56.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="34.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="33.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="28.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="52.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="40.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="53.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="88.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="42.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="70.140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="30" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="12" width="39.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="56.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="34.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="33.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="28.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="52.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="40.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="53.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="88.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="42.7109375" style="1" customWidth="1"/>
+    <col min="22" max="23" width="70.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="30" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -785,670 +983,1069 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="V1" s="1" t="s">
-        <v>33</v>
+        <v>131</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E2" s="1">
         <v>2023</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E3" s="1">
         <v>2020</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="N3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="4" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E4" s="1">
         <v>2024</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="V4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="X4" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E5" s="1">
         <v>2014</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="J5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="O5" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>60</v>
-      </c>
     </row>
-    <row r="6" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E6" s="1">
         <v>2018</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>68</v>
+      <c r="S6" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="X6" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="E7" s="1">
         <v>2021</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>78</v>
+        <v>29</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="E8" s="1">
         <v>2023</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="K8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>90</v>
-      </c>
     </row>
-    <row r="9" spans="1:22" ht="270" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="270" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="E9" s="1">
         <v>2024</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="K9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="V9" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="U9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>100</v>
+      <c r="X9" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="E10" s="1">
         <v>2021</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="K10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="U10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="X10" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>107</v>
-      </c>
     </row>
-    <row r="11" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="E11" s="1">
         <v>2020</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="J11" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="K11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="U11" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>120</v>
+      <c r="C12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1470,6 +2067,23 @@
     <hyperlink ref="I10" r:id="rId15" xr:uid="{384CEC85-DC46-4DBF-B0DE-B69FC6864A1F}"/>
     <hyperlink ref="I11" r:id="rId16" xr:uid="{1D3F193A-9373-4121-BF2A-EE486CE8009B}"/>
     <hyperlink ref="H11" r:id="rId17" xr:uid="{750D85B3-E674-454A-932C-12D686BC5AE3}"/>
+    <hyperlink ref="H12" r:id="rId18" xr:uid="{84F0060E-7061-4F7D-ACD7-795949591225}"/>
+    <hyperlink ref="I12" r:id="rId19" xr:uid="{8BB985BD-992E-4F5B-93B7-0929242EAAB8}"/>
+    <hyperlink ref="L12" r:id="rId20" xr:uid="{FC1FD790-845D-4680-A2DB-2EF54F3A307A}"/>
+    <hyperlink ref="H13" r:id="rId21" xr:uid="{F2DF7A95-1F41-44BC-A6C5-CE3092C48D6B}"/>
+    <hyperlink ref="L13" r:id="rId22" xr:uid="{AB11763B-3EE8-41C3-8C90-0B113984C21C}"/>
+    <hyperlink ref="H14" r:id="rId23" xr:uid="{FF7796AB-41B9-4249-B2E4-7B57A54808D5}"/>
+    <hyperlink ref="I14" r:id="rId24" xr:uid="{574BD793-E50A-438E-9345-E4ED4FDB9AAE}"/>
+    <hyperlink ref="L14" r:id="rId25" xr:uid="{73F5182D-1A2E-4B8B-975F-C536D16C873C}"/>
+    <hyperlink ref="H15" r:id="rId26" xr:uid="{968EBAA6-A592-4E50-BE89-8ED41B274076}"/>
+    <hyperlink ref="I15" r:id="rId27" xr:uid="{D0D16C06-63DF-41FB-8650-758469A2758E}"/>
+    <hyperlink ref="L15" r:id="rId28" xr:uid="{A8938066-7BCD-454E-8D69-CD7996A57CFB}"/>
+    <hyperlink ref="H16" r:id="rId29" xr:uid="{C3E31E3D-695D-484C-822A-32149A9760EB}"/>
+    <hyperlink ref="I16" r:id="rId30" xr:uid="{DA29EB7F-F700-43B3-8229-01D451442AF9}"/>
+    <hyperlink ref="L16" r:id="rId31" xr:uid="{2E5534DA-3037-470E-9211-7D272862EEF5}"/>
+    <hyperlink ref="L17" r:id="rId32" xr:uid="{FB908409-11D6-44CA-9301-B10F1432D96E}"/>
+    <hyperlink ref="H17" r:id="rId33" xr:uid="{239CCC97-8287-4FB0-ABEC-993DE38AD22C}"/>
+    <hyperlink ref="I17" r:id="rId34" xr:uid="{5083394D-AF38-48C1-8594-03A726EB77F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
